--- a/Year3_Project/Documents/Evaluations/Monthly Analysis Results/6-4/Line Graph.xlsx
+++ b/Year3_Project/Documents/Evaluations/Monthly Analysis Results/6-4/Line Graph.xlsx
@@ -5050,17 +5050,17 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="336904856"/>
-        <c:axId val="336908024"/>
+        <c:axId val="84776088"/>
+        <c:axId val="273211224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="336904856"/>
+        <c:axId val="84776088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336908024"/>
+        <c:crossAx val="273211224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5069,7 +5069,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336908024"/>
+        <c:axId val="273211224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5083,8 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336904856"/>
+        <c:crossAx val="84776088"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.01"/>
       </c:valAx>
@@ -5474,7 +5475,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="C41" sqref="C41:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10106,10 +10107,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
